--- a/BabbleAcoustic/Acoustic_characteristics_dataset_sex.xlsx
+++ b/BabbleAcoustic/Acoustic_characteristics_dataset_sex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Soderstrom-Lab\CurrentStudies\BabblepaperOCS\results\ResultsTTL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CurrentStudies\BabblepaperOCS\results\ResultsTTL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06835F92-BBE3-42CC-B6FE-FE0C121C3B91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868DC4C5-9A64-466B-A818-A70480C5B1D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9090" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sex" sheetId="2" r:id="rId1"/>
@@ -31,28 +31,28 @@
     <t>Soundname</t>
   </si>
   <si>
-    <t>duration</t>
-  </si>
-  <si>
     <t>textgrdlabel</t>
   </si>
   <si>
-    <t>f0-50</t>
+    <t>Count</t>
   </si>
   <si>
-    <t>f1-50</t>
+    <t>duration (ms)</t>
   </si>
   <si>
-    <t>f2-50</t>
+    <t>mean_pitch(HZ)</t>
   </si>
   <si>
-    <t>intens-50</t>
+    <t>f0-50(HZ)</t>
   </si>
   <si>
-    <t>mean pitch</t>
+    <t>f1_midpt(HZ)</t>
   </si>
   <si>
-    <t>Count</t>
+    <t>f2_midpt(HZ)</t>
+  </si>
+  <si>
+    <t>intens_midpt(dB)</t>
   </si>
 </sst>
 </file>
@@ -917,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,40 +929,41 @@
     <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="9" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -991,7 +992,7 @@
         <v>58.631190701631503</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>76.2168779113059</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>81.816605446559294</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>80.880818203936499</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>55.831212582768302</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>80.804637268015</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>80.571774489473398</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>82.219100848191601</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>68.174062511764205</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>71.869809071616203</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>53.386936233783302</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>71.890211570165704</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>80.358111126975899</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>83.046543417601498</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
